--- a/Diary.xlsx
+++ b/Diary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t xml:space="preserve">GuardianEye</t>
   </si>
@@ -223,7 +223,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -278,6 +278,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -477,10 +481,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F47" activeCellId="0" sqref="F47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L49" activeCellId="0" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -570,75 +574,75 @@
       <c r="A5" s="13" t="n">
         <v>45425</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="15" t="n">
+      <c r="C5" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16" t="n">
         <f aca="false">SUM(C5:C1000)</f>
-        <v>43</v>
-      </c>
-      <c r="I5" s="14" t="n">
+        <v>44</v>
+      </c>
+      <c r="I5" s="15" t="n">
         <f aca="false">SUM(D5:D1000)</f>
         <v>38</v>
       </c>
-      <c r="J5" s="14" t="n">
+      <c r="J5" s="15" t="n">
         <f aca="false">SUM(E5:E1000)</f>
-        <v>39</v>
-      </c>
-      <c r="K5" s="14" t="n">
+        <v>40</v>
+      </c>
+      <c r="K5" s="15" t="n">
         <f aca="false">SUM(F5:F1000)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
         <v>45426</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
         <v>45426</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="14" t="n">
+      <c r="C7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -646,19 +650,19 @@
       <c r="A8" s="13" t="n">
         <v>45427</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="14" t="n">
+      <c r="C8" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,19 +670,19 @@
       <c r="A9" s="13" t="n">
         <v>45427</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="14" t="n">
+      <c r="C9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -686,19 +690,19 @@
       <c r="A10" s="13" t="n">
         <v>45427</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="14" t="n">
+      <c r="C10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -706,19 +710,19 @@
       <c r="A11" s="13" t="n">
         <v>45428</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="14" t="n">
+      <c r="C11" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="14" t="n">
+      <c r="E11" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -729,19 +733,19 @@
       <c r="A12" s="13" t="n">
         <v>45429</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="14" t="n">
+      <c r="C12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -749,19 +753,19 @@
       <c r="A13" s="13" t="n">
         <v>45429</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14" t="n">
+      <c r="C13" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -769,19 +773,19 @@
       <c r="A14" s="13" t="n">
         <v>45429</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="14" t="n">
+      <c r="C14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -789,19 +793,19 @@
       <c r="A15" s="13" t="n">
         <v>45429</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="14" t="n">
+      <c r="C15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -809,19 +813,19 @@
       <c r="A16" s="13" t="n">
         <v>45430</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="14" t="n">
+      <c r="C16" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -829,19 +833,19 @@
       <c r="A17" s="13" t="n">
         <v>45432</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="14" t="n">
+      <c r="C17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -849,19 +853,19 @@
       <c r="A18" s="13" t="n">
         <v>45432</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="14" t="n">
+      <c r="C18" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F18" s="14" t="n">
+      <c r="F18" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -869,19 +873,19 @@
       <c r="A19" s="13" t="n">
         <v>45432</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="14" t="n">
+      <c r="C19" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -889,19 +893,19 @@
       <c r="A20" s="13" t="n">
         <v>45433</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="14" t="n">
+      <c r="C20" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="E20" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="14" t="n">
+      <c r="E20" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -909,19 +913,19 @@
       <c r="A21" s="13" t="n">
         <v>45433</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="14" t="n">
+      <c r="C21" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -929,19 +933,19 @@
       <c r="A22" s="13" t="n">
         <v>45434</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="14" t="n">
+      <c r="C22" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="E22" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="14" t="n">
+      <c r="E22" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -949,19 +953,19 @@
       <c r="A23" s="13" t="n">
         <v>45434</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="14" t="n">
+      <c r="C23" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="E23" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="14" t="n">
+      <c r="E23" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -969,19 +973,19 @@
       <c r="A24" s="13" t="n">
         <v>45434</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="14" t="n">
+      <c r="C24" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="E24" s="14" t="n">
+      <c r="E24" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="14" t="n">
+      <c r="F24" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -989,19 +993,19 @@
       <c r="A25" s="13" t="n">
         <v>45436</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="14" t="n">
+      <c r="C25" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F25" s="14" t="n">
+      <c r="F25" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1009,19 +1013,19 @@
       <c r="A26" s="13" t="n">
         <v>45436</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="14" t="n">
+      <c r="C26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1029,19 +1033,19 @@
       <c r="A27" s="13" t="n">
         <v>45436</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="14" t="n">
+      <c r="C27" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1049,19 +1053,19 @@
       <c r="A28" s="13" t="n">
         <v>45436</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="14" t="n">
+      <c r="C28" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1069,19 +1073,19 @@
       <c r="A29" s="13" t="n">
         <v>45437</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="14" t="n">
+      <c r="C29" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1089,19 +1093,19 @@
       <c r="A30" s="13" t="n">
         <v>45437</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="14" t="n">
+      <c r="C30" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1109,19 +1113,19 @@
       <c r="A31" s="13" t="n">
         <v>45439</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="14" t="n">
+      <c r="C31" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1129,19 +1133,19 @@
       <c r="A32" s="13" t="n">
         <v>45439</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="14" t="n">
+      <c r="C32" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1149,19 +1153,19 @@
       <c r="A33" s="13" t="n">
         <v>45439</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="14" t="n">
+      <c r="C33" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1169,19 +1173,19 @@
       <c r="A34" s="13" t="n">
         <v>45440</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="14" t="n">
+      <c r="C34" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1189,19 +1193,19 @@
       <c r="A35" s="13" t="n">
         <v>45440</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="14" t="n">
+      <c r="C35" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1209,19 +1213,19 @@
       <c r="A36" s="13" t="n">
         <v>45441</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="14" t="n">
+      <c r="C36" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1229,19 +1233,19 @@
       <c r="A37" s="13" t="n">
         <v>45441</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="14" t="n">
+      <c r="C37" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1249,19 +1253,19 @@
       <c r="A38" s="13" t="n">
         <v>45441</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="14" t="n">
+      <c r="C38" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1269,19 +1273,19 @@
       <c r="A39" s="13" t="n">
         <v>45441</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="14" t="n">
+      <c r="C39" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1289,19 +1293,19 @@
       <c r="A40" s="13" t="n">
         <v>45442</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="14" t="n">
+      <c r="C40" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1309,19 +1313,19 @@
       <c r="A41" s="13" t="n">
         <v>45442</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="14" t="n">
+      <c r="C41" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F41" s="14" t="n">
+      <c r="F41" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1329,19 +1333,19 @@
       <c r="A42" s="13" t="n">
         <v>45443</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="14" t="n">
+      <c r="C42" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1349,19 +1353,19 @@
       <c r="A43" s="13" t="n">
         <v>45443</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="14" t="n">
+      <c r="C43" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1369,19 +1373,19 @@
       <c r="A44" s="13" t="n">
         <v>45443</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="14" t="n">
+      <c r="C44" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1389,19 +1393,19 @@
       <c r="A45" s="13" t="n">
         <v>45443</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="14" t="n">
+      <c r="C45" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1409,19 +1413,19 @@
       <c r="A46" s="13" t="n">
         <v>45443</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="14" t="n">
+      <c r="C46" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1429,19 +1433,39 @@
       <c r="A47" s="13" t="n">
         <v>45443</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="14" t="n">
+      <c r="C47" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="13" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="15" t="n">
         <v>1</v>
       </c>
     </row>
